--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_13.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>376039.6593209953</v>
+        <v>372706.9744652319</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2629876.587221764</v>
+        <v>2114249.189782367</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19997574.02179438</v>
+        <v>19492207.60956402</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4902568.07848821</v>
+        <v>5118051.369601971</v>
       </c>
     </row>
     <row r="11">
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>39.58387696184059</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -716,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X2" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y2" t="n">
-        <v>34.86547882798917</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="3">
@@ -747,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>38.12502610536668</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -823,25 +825,25 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H4" t="n">
-        <v>27.29193749722201</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="I4" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -902,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>39.58387696184059</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="6">
@@ -975,22 +977,22 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1032,16 +1034,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="7">
@@ -1060,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1078,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,16 +1095,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>24.5704967621155</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1142,19 +1144,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>22.91618947337665</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I8" t="n">
-        <v>39.58387696184059</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1218,19 +1220,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>38.12502610536668</v>
       </c>
       <c r="F9" t="n">
-        <v>34.11888750173132</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G9" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H9" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1306,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>27.29193749722201</v>
+        <v>22.65313100102799</v>
       </c>
       <c r="I10" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J10" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -1379,16 +1381,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1412,10 +1414,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1427,13 +1429,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>24.87477961344436</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1455,19 +1457,19 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="F12" t="n">
-        <v>34.86547882798917</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G12" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H12" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1543,16 +1545,16 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>22.65313100102799</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1567,19 +1569,19 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>7.256111626157765</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1622,10 +1624,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>24.87477961344436</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1649,16 +1651,16 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1667,10 +1669,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="X14" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1731,22 +1733,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>39.58387696184059</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="S15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>34.86547882798917</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1780,16 +1782,16 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>24.5704967621155</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1807,13 +1809,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>42.20118209180435</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1856,13 +1858,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1898,16 +1900,16 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1935,16 +1937,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>38.12502610536669</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>44.13217237922859</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>44.13217237922859</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>44.13217237922859</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>124.3469240739945</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2041,25 +2043,25 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>44.13217237922859</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>44.13217237922859</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2078,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2126,28 +2128,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,25 +2159,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>6.619864944732362</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2205,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2223,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>121.5486770535123</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2293,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2318,28 +2320,28 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>50.46697834767983</v>
+      </c>
+      <c r="G23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F23" t="n">
+      <c r="H23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2363,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2403,19 +2405,19 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2448,19 +2450,19 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>60.83777802708705</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>35.40726547353844</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2533,10 +2535,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2561,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2597,31 +2599,31 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>3.265316057196634</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2634,22 +2636,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>46.04811363038954</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2679,22 +2681,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>44.6546398735026</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2767,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2795,64 +2797,64 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R29" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>52.42556848774752</v>
+      </c>
+      <c r="U29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E29" t="n">
+      <c r="V29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>21.18375537072436</v>
-      </c>
-      <c r="S29" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T29" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2868,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2880,19 +2882,19 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>137.610688794897</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,16 +2918,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>23.63437501744373</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2934,10 +2936,10 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -3010,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3038,10 +3040,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3071,16 +3073,16 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>84.41978777916125</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3092,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>241.0142888776591</v>
@@ -3105,13 +3107,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>62.88143347497289</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>121.2086027464166</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -3126,10 +3128,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3156,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -3238,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3266,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3284,7 +3286,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I35" t="n">
-        <v>3.26531605719669</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3308,19 +3310,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3329,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3345,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3354,16 +3356,16 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>47.745640548929</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,13 +3392,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>93.30381541392018</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -3405,10 +3407,10 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -3430,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3442,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3512,10 +3514,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3545,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3560,16 +3562,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
     </row>
     <row r="39">
@@ -3579,10 +3581,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>109.4031921034047</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3603,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3630,16 +3632,16 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>29.79900896488251</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>241.0142888776591</v>
@@ -3648,7 +3650,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3718,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3746,13 +3748,13 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="F41" t="n">
-        <v>208.2792470398066</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>236.4659934602711</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3803,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y41" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="42">
@@ -3822,25 +3824,25 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>127.2360271755735</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3864,22 +3866,22 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>219.7301113883424</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3946,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3977,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3986,10 +3988,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3998,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4022,10 +4024,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>34.86547882798917</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4040,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>50.46697834767983</v>
       </c>
     </row>
     <row r="45">
@@ -4059,22 +4061,22 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -4101,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>39.58387696184059</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>45.28887413297245</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4113,16 +4115,16 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>34.11888750173132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4132,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4195,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K2" t="n">
-        <v>40.77139327069581</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L2" t="n">
-        <v>79.95943146291799</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M2" t="n">
-        <v>119.1474696551402</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="N2" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="O2" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P2" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q2" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R2" t="n">
-        <v>118.3517937444931</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="S2" t="n">
-        <v>118.3517937444931</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="T2" t="n">
-        <v>118.3517937444931</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="U2" t="n">
-        <v>118.3517937444931</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="V2" t="n">
-        <v>78.36807964162378</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="W2" t="n">
-        <v>78.36807964162378</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="X2" t="n">
-        <v>38.38436553875449</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>43.15042425981653</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C3" t="n">
-        <v>43.15042425981653</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D3" t="n">
-        <v>43.15042425981653</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="E3" t="n">
-        <v>43.15042425981653</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="F3" t="n">
-        <v>43.15042425981653</v>
+        <v>138.0185621377561</v>
       </c>
       <c r="G3" t="n">
-        <v>43.15042425981653</v>
+        <v>93.44061023954541</v>
       </c>
       <c r="H3" t="n">
-        <v>43.15042425981653</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="I3" t="n">
-        <v>3.166710156947247</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="J3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K3" t="n">
-        <v>3.166710156947247</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L3" t="n">
-        <v>42.35474834916943</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M3" t="n">
-        <v>79.95943146291799</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N3" t="n">
-        <v>79.95943146291799</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O3" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P3" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R3" t="n">
-        <v>123.1178524655551</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S3" t="n">
-        <v>83.13413836268582</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T3" t="n">
-        <v>43.15042425981653</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U3" t="n">
-        <v>43.15042425981653</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V3" t="n">
-        <v>43.15042425981653</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W3" t="n">
-        <v>43.15042425981653</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X3" t="n">
-        <v>43.15042425981653</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y3" t="n">
-        <v>43.15042425981653</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="C4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="D4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="E4" t="n">
-        <v>133.1961881840039</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="F4" t="n">
-        <v>133.1961881840039</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="G4" t="n">
-        <v>133.1961881840039</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="H4" t="n">
-        <v>105.6285745504463</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I4" t="n">
-        <v>65.64486044757699</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J4" t="n">
-        <v>25.66114634470771</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K4" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L4" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M4" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N4" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>158.3355078473624</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="C5" t="n">
-        <v>158.3355078473624</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="D5" t="n">
-        <v>158.3355078473624</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="E5" t="n">
-        <v>123.1178524655551</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="F5" t="n">
-        <v>83.13413836268582</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="G5" t="n">
-        <v>43.15042425981653</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="H5" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K5" t="n">
-        <v>40.77139327069581</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L5" t="n">
-        <v>79.95943146291799</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M5" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N5" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W5" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="X5" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="Y5" t="n">
-        <v>158.3355078473624</v>
+        <v>87.37278572049297</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>158.3355078473624</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="C6" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D6" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E6" t="n">
-        <v>118.3517937444931</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F6" t="n">
-        <v>78.36807964162378</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G6" t="n">
-        <v>38.38436553875449</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K6" t="n">
-        <v>40.77139327069581</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L6" t="n">
-        <v>79.95943146291799</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M6" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N6" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O6" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P6" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V6" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="W6" t="n">
-        <v>158.3355078473624</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="X6" t="n">
-        <v>158.3355078473624</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="Y6" t="n">
-        <v>158.3355078473624</v>
+        <v>42.79483382228227</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25.66114634470771</v>
+        <v>138.062864280609</v>
       </c>
       <c r="C7" t="n">
-        <v>25.66114634470771</v>
+        <v>138.062864280609</v>
       </c>
       <c r="D7" t="n">
-        <v>25.66114634470771</v>
+        <v>138.062864280609</v>
       </c>
       <c r="E7" t="n">
-        <v>25.66114634470771</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="F7" t="n">
-        <v>25.66114634470771</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="G7" t="n">
-        <v>25.66114634470771</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="H7" t="n">
-        <v>25.66114634470771</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I7" t="n">
-        <v>25.66114634470771</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J7" t="n">
-        <v>25.66114634470771</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K7" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L7" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M7" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N7" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P7" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q7" t="n">
-        <v>90.46354404567346</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R7" t="n">
-        <v>50.47982994280417</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S7" t="n">
-        <v>25.66114634470771</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T7" t="n">
-        <v>25.66114634470771</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U7" t="n">
-        <v>25.66114634470771</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V7" t="n">
-        <v>25.66114634470771</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W7" t="n">
-        <v>25.66114634470771</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X7" t="n">
-        <v>25.66114634470771</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y7" t="n">
-        <v>25.66114634470771</v>
+        <v>138.062864280609</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="E8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="F8" t="n">
-        <v>135.1878417126385</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="G8" t="n">
-        <v>95.20412760976917</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="H8" t="n">
-        <v>55.22041350689989</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="I8" t="n">
-        <v>15.2366994040306</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K8" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L8" t="n">
-        <v>81.54278654139161</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M8" t="n">
-        <v>119.1474696551402</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N8" t="n">
-        <v>119.1474696551402</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O8" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="E9" t="n">
-        <v>158.3355078473624</v>
+        <v>138.0185621377561</v>
       </c>
       <c r="F9" t="n">
-        <v>123.8719851183408</v>
+        <v>93.44061023954541</v>
       </c>
       <c r="G9" t="n">
-        <v>83.88827101547153</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="H9" t="n">
-        <v>43.90455691260225</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="I9" t="n">
-        <v>3.920842809732961</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="J9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M9" t="n">
-        <v>40.77139327069581</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N9" t="n">
-        <v>79.95943146291799</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="O9" t="n">
-        <v>119.1474696551402</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P9" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="C10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="D10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="E10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="F10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="G10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="H10" t="n">
-        <v>105.6285745504463</v>
+        <v>115.1809137745201</v>
       </c>
       <c r="I10" t="n">
-        <v>65.64486044757699</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="J10" t="n">
-        <v>25.66114634470771</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="K10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L10" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M10" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N10" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>83.13413836268582</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="C11" t="n">
-        <v>83.13413836268582</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="D11" t="n">
-        <v>83.13413836268582</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="E11" t="n">
-        <v>83.13413836268582</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="F11" t="n">
-        <v>43.15042425981653</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="G11" t="n">
-        <v>43.15042425981653</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="H11" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="I11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L11" t="n">
-        <v>3.166710156947247</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M11" t="n">
-        <v>42.35474834916943</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N11" t="n">
-        <v>81.54278654139161</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O11" t="n">
-        <v>120.7308247336138</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q11" t="n">
-        <v>148.2438924791353</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R11" t="n">
-        <v>108.260178376266</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S11" t="n">
-        <v>108.260178376266</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T11" t="n">
-        <v>108.260178376266</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U11" t="n">
-        <v>108.260178376266</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V11" t="n">
-        <v>108.260178376266</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="W11" t="n">
-        <v>108.260178376266</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="X11" t="n">
-        <v>83.13413836268582</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="Y11" t="n">
-        <v>83.13413836268582</v>
+        <v>137.2644294849704</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="E12" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="F12" t="n">
-        <v>123.1178524655551</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="G12" t="n">
-        <v>83.13413836268582</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="H12" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K12" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L12" t="n">
-        <v>79.95943146291799</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M12" t="n">
-        <v>79.95943146291799</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="N12" t="n">
-        <v>79.95943146291799</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="O12" t="n">
-        <v>79.95943146291799</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P12" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="C13" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="D13" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="E13" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="F13" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="G13" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="H13" t="n">
-        <v>3.166710156947247</v>
+        <v>115.1809137745201</v>
       </c>
       <c r="I13" t="n">
-        <v>3.166710156947247</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="J13" t="n">
-        <v>3.166710156947247</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="K13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L13" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M13" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N13" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P13" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q13" t="n">
-        <v>90.46354404567346</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R13" t="n">
-        <v>50.47982994280417</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S13" t="n">
-        <v>10.49611583993489</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T13" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U13" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V13" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W13" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X13" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y13" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>68.2764642733967</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C14" t="n">
-        <v>68.2764642733967</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D14" t="n">
-        <v>68.2764642733967</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E14" t="n">
-        <v>68.2764642733967</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F14" t="n">
-        <v>68.2764642733967</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G14" t="n">
-        <v>68.2764642733967</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H14" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K14" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L14" t="n">
-        <v>79.95943146291799</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M14" t="n">
-        <v>79.95943146291799</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N14" t="n">
-        <v>79.95943146291799</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O14" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q14" t="n">
-        <v>148.2438924791353</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R14" t="n">
-        <v>108.260178376266</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S14" t="n">
-        <v>108.260178376266</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T14" t="n">
-        <v>108.260178376266</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="U14" t="n">
-        <v>108.260178376266</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="V14" t="n">
-        <v>108.260178376266</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="W14" t="n">
-        <v>108.260178376266</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="X14" t="n">
-        <v>68.2764642733967</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y14" t="n">
-        <v>68.2764642733967</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L15" t="n">
-        <v>3.166710156947247</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M15" t="n">
-        <v>40.77139327069581</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="N15" t="n">
-        <v>79.95943146291799</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="O15" t="n">
-        <v>119.1474696551402</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="P15" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3517937444931</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="S15" t="n">
-        <v>78.36807964162378</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="T15" t="n">
-        <v>38.38436553875449</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="U15" t="n">
-        <v>3.166710156947247</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="V15" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="W15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>130.4472581485427</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C16" t="n">
-        <v>130.4472581485427</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D16" t="n">
-        <v>130.4472581485427</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E16" t="n">
-        <v>130.4472581485427</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F16" t="n">
-        <v>130.4472581485427</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G16" t="n">
-        <v>130.4472581485427</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H16" t="n">
-        <v>105.6285745504463</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I16" t="n">
-        <v>65.64486044757699</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J16" t="n">
-        <v>25.66114634470771</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L16" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M16" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N16" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P16" t="n">
-        <v>130.4472581485427</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Q16" t="n">
-        <v>130.4472581485427</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="R16" t="n">
-        <v>130.4472581485427</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="S16" t="n">
-        <v>130.4472581485427</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="T16" t="n">
-        <v>130.4472581485427</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="U16" t="n">
-        <v>130.4472581485427</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V16" t="n">
-        <v>130.4472581485427</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W16" t="n">
-        <v>130.4472581485427</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X16" t="n">
-        <v>130.4472581485427</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y16" t="n">
-        <v>130.4472581485427</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>137.2644294849704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>137.2644294849704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>137.2644294849704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>137.2644294849704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>137.2644294849704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>92.68647758675968</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K17" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L17" t="n">
-        <v>89.14698820604177</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M17" t="n">
-        <v>89.14698820604177</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N17" t="n">
-        <v>89.14698820604177</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O17" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>137.2644294849704</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>137.2644294849704</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>137.2644294849704</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>137.2644294849704</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V17" t="n">
-        <v>137.2644294849704</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W17" t="n">
-        <v>137.2644294849704</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X17" t="n">
-        <v>137.2644294849704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y17" t="n">
-        <v>137.2644294849704</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>42.79483382228227</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="C18" t="n">
-        <v>42.79483382228227</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="D18" t="n">
-        <v>42.79483382228227</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="E18" t="n">
-        <v>42.79483382228227</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="F18" t="n">
-        <v>42.79483382228227</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G18" t="n">
-        <v>42.79483382228227</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H18" t="n">
-        <v>4.284706443124001</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I18" t="n">
-        <v>4.284706443124001</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>3.530573790338288</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>47.22142444577459</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M18" t="n">
-        <v>47.22142444577459</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N18" t="n">
-        <v>47.22142444577459</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O18" t="n">
-        <v>89.14698820604177</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>131.9507376187037</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>87.37278572049297</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>42.79483382228227</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U18" t="n">
-        <v>42.79483382228227</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="V18" t="n">
-        <v>42.79483382228227</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="W18" t="n">
-        <v>42.79483382228227</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="X18" t="n">
-        <v>42.79483382228227</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="Y18" t="n">
-        <v>42.79483382228227</v>
+        <v>361.6807332628614</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L19" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M19" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N19" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>138.062864280609</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q19" t="n">
-        <v>93.48491238239833</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R19" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>262.7299197543128</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C20" t="n">
-        <v>262.7299197543128</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5774,28 +5776,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T20" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U20" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V20" t="n">
-        <v>506.1786963984129</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W20" t="n">
-        <v>262.7299197543128</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X20" t="n">
-        <v>262.7299197543128</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.7299197543128</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>291.8877337080889</v>
+        <v>655.1273272985679</v>
       </c>
       <c r="C21" t="n">
-        <v>291.8877337080889</v>
+        <v>480.6742980174409</v>
       </c>
       <c r="D21" t="n">
-        <v>291.8877337080889</v>
+        <v>331.7398883561897</v>
       </c>
       <c r="E21" t="n">
-        <v>132.6502787026334</v>
+        <v>172.5024333507342</v>
       </c>
       <c r="F21" t="n">
-        <v>132.6502787026334</v>
+        <v>25.96787537761915</v>
       </c>
       <c r="G21" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
         <v>19.28114311021272</v>
@@ -5853,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U21" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V21" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W21" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X21" t="n">
-        <v>667.8633694931109</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y21" t="n">
-        <v>460.1030707281569</v>
+        <v>655.1273272985679</v>
       </c>
     </row>
     <row r="22">
@@ -5932,13 +5934,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
         <v>19.28114311021272</v>
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="C23" t="n">
-        <v>749.627473042513</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="D23" t="n">
-        <v>506.1786963984129</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="E23" t="n">
-        <v>262.7299197543128</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6011,28 +6013,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W23" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X23" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y23" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I24" t="n">
         <v>19.28114311021272</v>
@@ -6069,13 +6071,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M24" t="n">
-        <v>473.4149733950735</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N24" t="n">
         <v>473.4149733950735</v>
@@ -6096,22 +6098,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>761.8705608694022</v>
+        <v>902.6048544731746</v>
       </c>
       <c r="U24" t="n">
-        <v>533.6469426057913</v>
+        <v>902.6048544731746</v>
       </c>
       <c r="V24" t="n">
-        <v>298.4948343740486</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="W24" t="n">
-        <v>55.04605772994853</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="X24" t="n">
-        <v>19.28114311021272</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.28114311021272</v>
+        <v>667.4527462414319</v>
       </c>
     </row>
     <row r="25">
@@ -6181,7 +6183,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W25" t="n">
         <v>829.5248650203655</v>
@@ -6200,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>960.7588564629629</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="T26" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="U26" t="n">
         <v>749.627473042513</v>
       </c>
-      <c r="T26" t="n">
+      <c r="V26" t="n">
         <v>749.627473042513</v>
       </c>
-      <c r="U26" t="n">
+      <c r="W26" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="V26" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="W26" t="n">
-        <v>262.7299197543128</v>
-      </c>
       <c r="X26" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y26" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>521.2549444941228</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="C27" t="n">
-        <v>474.7416984028202</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="D27" t="n">
-        <v>325.807288741569</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="E27" t="n">
-        <v>166.5698337361135</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="F27" t="n">
-        <v>20.03527576299844</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G27" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H27" t="n">
         <v>20.03527576299844</v>
@@ -6309,10 +6311,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N27" t="n">
         <v>542.809531908403</v>
@@ -6327,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>689.4702815141908</v>
+        <v>918.9514586687144</v>
       </c>
       <c r="V27" t="n">
-        <v>689.4702815141908</v>
+        <v>683.7993504369717</v>
       </c>
       <c r="W27" t="n">
-        <v>689.4702815141908</v>
+        <v>440.3505737928717</v>
       </c>
       <c r="X27" t="n">
-        <v>689.4702815141908</v>
+        <v>440.3505737928717</v>
       </c>
       <c r="Y27" t="n">
-        <v>689.4702815141908</v>
+        <v>440.3505737928717</v>
       </c>
     </row>
     <row r="28">
@@ -6415,10 +6417,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
         <v>19.28114311021272</v>
@@ -6437,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C29" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>942.6594228129348</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>731.528039392485</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T29" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U29" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="V29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W29" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X29" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y29" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>500.6814290152826</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C30" t="n">
-        <v>500.6814290152826</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D30" t="n">
-        <v>500.6814290152826</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E30" t="n">
-        <v>500.6814290152826</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F30" t="n">
-        <v>361.6807332628614</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G30" t="n">
-        <v>222.9499078454769</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6546,46 +6548,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M30" t="n">
-        <v>487.8483949674443</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N30" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>839.0145199852959</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>839.0145199852959</v>
       </c>
       <c r="U30" t="n">
-        <v>735.8335372470253</v>
+        <v>839.0145199852959</v>
       </c>
       <c r="V30" t="n">
-        <v>500.6814290152826</v>
+        <v>603.8624117535533</v>
       </c>
       <c r="W30" t="n">
-        <v>500.6814290152826</v>
+        <v>603.8624117535533</v>
       </c>
       <c r="X30" t="n">
-        <v>500.6814290152826</v>
+        <v>396.0109115480204</v>
       </c>
       <c r="Y30" t="n">
-        <v>500.6814290152826</v>
+        <v>188.2506127830665</v>
       </c>
     </row>
     <row r="31">
@@ -6658,10 +6660,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
         <v>19.28114311021272</v>
@@ -6674,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X32" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y32" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>900.5405560409666</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="C33" t="n">
-        <v>726.0875267598396</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="D33" t="n">
-        <v>577.1531170985884</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E33" t="n">
-        <v>417.9156620931329</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F33" t="n">
-        <v>271.3811041200179</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G33" t="n">
-        <v>132.6502787026334</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6783,16 +6785,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N33" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
         <v>894.6625969973069</v>
@@ -6804,25 +6806,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V33" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W33" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X33" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y33" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>509.4769954460863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C35" t="n">
-        <v>509.4769954460863</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D35" t="n">
-        <v>509.4769954460863</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E35" t="n">
-        <v>509.4769954460863</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F35" t="n">
-        <v>509.4769954460863</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G35" t="n">
-        <v>266.0282188019862</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H35" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U35" t="n">
-        <v>509.4769954460863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V35" t="n">
-        <v>509.4769954460863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W35" t="n">
-        <v>509.4769954460863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X35" t="n">
-        <v>509.4769954460863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y35" t="n">
-        <v>509.4769954460863</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>109.5807722530562</v>
+        <v>380.6929175551172</v>
       </c>
       <c r="C36" t="n">
-        <v>109.5807722530562</v>
+        <v>206.2398882739901</v>
       </c>
       <c r="D36" t="n">
-        <v>109.5807722530562</v>
+        <v>206.2398882739901</v>
       </c>
       <c r="E36" t="n">
-        <v>109.5807722530562</v>
+        <v>206.2398882739901</v>
       </c>
       <c r="F36" t="n">
-        <v>109.5807722530562</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G36" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
         <v>19.28114311021272</v>
@@ -7017,49 +7019,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M36" t="n">
-        <v>383.2428491569326</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N36" t="n">
-        <v>621.8469951458151</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O36" t="n">
-        <v>860.4511411346975</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>768.6413478676429</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>768.6413478676429</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U36" t="n">
-        <v>768.6413478676429</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V36" t="n">
-        <v>768.6413478676429</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W36" t="n">
-        <v>525.1925712235429</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="X36" t="n">
-        <v>317.3410710180102</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="Y36" t="n">
-        <v>109.5807722530562</v>
+        <v>380.6929175551172</v>
       </c>
     </row>
     <row r="37">
@@ -7078,16 +7080,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="E37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I37" t="n">
         <v>829.5248650203655</v>
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C38" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="W38" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="X38" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="Y38" t="n">
         <v>749.627473042513</v>
-      </c>
-      <c r="W38" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="X38" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7260,13 +7262,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7278,25 +7280,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>933.9571464551993</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>933.9571464551993</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>705.7335281915883</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V39" t="n">
-        <v>470.5814199598456</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W39" t="n">
-        <v>227.1326433157456</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X39" t="n">
-        <v>19.28114311021272</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>304.9965798960495</v>
       </c>
     </row>
     <row r="40">
@@ -7354,16 +7356,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V40" t="n">
         <v>829.5248650203655</v>
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>468.1548961435668</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C41" t="n">
-        <v>468.1548961435668</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D41" t="n">
-        <v>468.1548961435668</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E41" t="n">
-        <v>468.1548961435668</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
-        <v>257.7718183255803</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K41" t="n">
-        <v>121.932285387744</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L41" t="n">
-        <v>302.0081369724026</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M41" t="n">
-        <v>518.9837642353068</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N41" t="n">
-        <v>724.8382864425462</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O41" t="n">
-        <v>874.0332365851942</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X41" t="n">
-        <v>945.8639738410842</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y41" t="n">
-        <v>707.0094349923255</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>18.91727947682168</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="C42" t="n">
-        <v>18.91727947682168</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="D42" t="n">
-        <v>18.91727947682168</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="E42" t="n">
-        <v>18.91727947682168</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F42" t="n">
-        <v>18.91727947682168</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G42" t="n">
-        <v>18.91727947682168</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H42" t="n">
-        <v>18.91727947682168</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I42" t="n">
-        <v>18.91727947682168</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>18.91727947682168</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>248.8803853451708</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M42" t="n">
-        <v>482.9817188708391</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N42" t="n">
-        <v>482.9817188708391</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O42" t="n">
-        <v>693.8259377144041</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P42" t="n">
-        <v>876.4694153277549</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>844.6944443939699</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>671.2770998446388</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T42" t="n">
-        <v>469.0905052034048</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U42" t="n">
-        <v>240.8668869397939</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V42" t="n">
-        <v>18.91727947682168</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W42" t="n">
-        <v>18.91727947682168</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="X42" t="n">
-        <v>18.91727947682168</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="Y42" t="n">
-        <v>18.91727947682168</v>
+        <v>547.1910343172051</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>46.23140448453466</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>85.41944267675684</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>129.1102933321932</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>18.91727947682168</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>18.91727947682168</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>83.13413836268582</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C44" t="n">
-        <v>83.13413836268582</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D44" t="n">
-        <v>83.13413836268582</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E44" t="n">
-        <v>83.13413836268582</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F44" t="n">
-        <v>43.15042425981653</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G44" t="n">
-        <v>3.166710156947247</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H44" t="n">
-        <v>3.166710156947247</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I44" t="n">
-        <v>3.166710156947247</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K44" t="n">
-        <v>42.35474834916943</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L44" t="n">
-        <v>81.54278654139161</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M44" t="n">
-        <v>81.54278654139161</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N44" t="n">
-        <v>81.54278654139161</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O44" t="n">
-        <v>119.1474696551402</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P44" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>123.1178524655551</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S44" t="n">
-        <v>83.13413836268582</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T44" t="n">
-        <v>83.13413836268582</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U44" t="n">
-        <v>83.13413836268582</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V44" t="n">
-        <v>83.13413836268582</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W44" t="n">
-        <v>83.13413836268582</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X44" t="n">
-        <v>83.13413836268582</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="Y44" t="n">
-        <v>83.13413836268582</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3.920842809732961</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="C45" t="n">
-        <v>3.920842809732961</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D45" t="n">
-        <v>3.920842809732961</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E45" t="n">
-        <v>3.920842809732961</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F45" t="n">
-        <v>3.920842809732961</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G45" t="n">
-        <v>3.920842809732961</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H45" t="n">
-        <v>3.920842809732961</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I45" t="n">
-        <v>3.920842809732961</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>42.35474834916943</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L45" t="n">
-        <v>81.54278654139161</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M45" t="n">
-        <v>81.54278654139161</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N45" t="n">
-        <v>81.54278654139161</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O45" t="n">
-        <v>119.1474696551402</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3517937444931</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S45" t="n">
-        <v>118.3517937444931</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="T45" t="n">
-        <v>118.3517937444931</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="U45" t="n">
-        <v>118.3517937444931</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="V45" t="n">
-        <v>78.36807964162378</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="W45" t="n">
-        <v>38.38436553875449</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="X45" t="n">
-        <v>38.38436553875449</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="Y45" t="n">
-        <v>3.920842809732961</v>
+        <v>817.1412885554689</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>93.21247408113457</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>93.21247408113457</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>53.22875997826529</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>53.22875997826529</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>13.245045875396</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>30.48083516466022</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>69.6688733568824</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>108.8569115491046</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>93.21247408113457</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>93.21247408113457</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>93.21247408113457</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>258.0743794427063</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L2" t="n">
-        <v>275.3502919318278</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M2" t="n">
-        <v>269.9301101891133</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>271.7621178998911</v>
       </c>
       <c r="O2" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>270.8168727171101</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L3" t="n">
-        <v>178.1382567417148</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M3" t="n">
-        <v>180.1185623197441</v>
+        <v>184.4830882253185</v>
       </c>
       <c r="N3" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>182.180121406285</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>179.5656510478621</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8146,7 +8148,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8216,19 +8218,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>258.0743794427063</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L5" t="n">
-        <v>275.3502919318278</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M5" t="n">
-        <v>269.9301101891133</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N5" t="n">
-        <v>268.9969405584315</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O5" t="n">
-        <v>230.0982114216867</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P5" t="n">
         <v>231.2329957552695</v>
@@ -8295,13 +8297,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>175.8259673720848</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L6" t="n">
-        <v>178.1382567417148</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M6" t="n">
-        <v>181.7179108838589</v>
+        <v>184.4830882253185</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
@@ -8310,10 +8312,10 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q6" t="n">
-        <v>179.5656510478621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8383,7 +8385,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N7" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
@@ -8453,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>259.6737280068211</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>275.3502919318278</v>
+        <v>278.1154692732874</v>
       </c>
       <c r="M8" t="n">
-        <v>268.3307616249986</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N8" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P8" t="n">
-        <v>270.8168727171101</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8538,19 +8540,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>180.1185623197441</v>
+        <v>184.4830882253185</v>
       </c>
       <c r="N9" t="n">
-        <v>170.9255890451739</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>182.180121406285</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P9" t="n">
-        <v>173.5582843761708</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8620,7 +8622,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N10" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
@@ -8693,19 +8695,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
-        <v>235.7664149699872</v>
+        <v>278.1154692732874</v>
       </c>
       <c r="M11" t="n">
-        <v>269.9301101891133</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N11" t="n">
-        <v>268.9969405584315</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O11" t="n">
-        <v>269.6820883835273</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P11" t="n">
-        <v>269.2175241529953</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>177.4253159361996</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>176.5389081776</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P12" t="n">
-        <v>173.5582843761708</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q12" t="n">
-        <v>179.5656510478621</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8857,7 +8859,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N13" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O13" t="n">
         <v>163.0416663658825</v>
@@ -8927,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>259.6737280068211</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L14" t="n">
-        <v>273.750943367713</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M14" t="n">
-        <v>230.3462332272727</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N14" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O14" t="n">
-        <v>269.6820883835273</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P14" t="n">
-        <v>270.8168727171101</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9009,22 +9011,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M15" t="n">
-        <v>180.1185623197441</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>170.9255890451739</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>182.180121406285</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P15" t="n">
-        <v>173.5582843761708</v>
+        <v>176.3234617176304</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9094,7 +9096,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N16" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O16" t="n">
         <v>163.0416663658825</v>
@@ -9164,22 +9166,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>278.1154692732874</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>230.3462332272727</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>229.4130635965909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9243,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>182.6865521591028</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>184.9452987477446</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>178.1065797935588</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>184.1139464652501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9717,16 +9719,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>241.9453110519923</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9957,13 +9959,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>303.312501347746</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -10194,22 +10196,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N30" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10431,19 +10433,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10665,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
@@ -10680,10 +10682,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>238.6269471880057</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10908,16 +10910,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>301.248502863135</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11075,7 +11077,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>303.7892960137443</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11139,19 +11141,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>378.6000273822893</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>222.4246658592332</v>
       </c>
       <c r="O42" t="n">
-        <v>355.5702028722878</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11297,22 +11299,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>259.6737280068211</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>275.3502919318278</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>230.3462332272727</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>229.4130635965909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>268.0827398194126</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>270.8168727171101</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,22 +11378,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>177.4253159361996</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L45" t="n">
-        <v>178.1382567417148</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>180.5807728421703</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>173.5582843761708</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -11464,7 +11466,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N46" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O46" t="n">
         <v>163.0416663658825</v>
@@ -22592,7 +22594,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>110.2852409793091</v>
+        <v>110.9975005095251</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -22604,16 +22606,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>288.1683815082943</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>305.1087963381844</v>
       </c>
       <c r="X2" t="n">
-        <v>330.1472237166284</v>
+        <v>325.5989282992405</v>
       </c>
       <c r="Y2" t="n">
-        <v>351.3724598280644</v>
+        <v>342.105766276825</v>
       </c>
     </row>
     <row r="3">
@@ -22635,19 +22637,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>106.9441862880172</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>93.21134478398204</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>68.10327185726787</v>
       </c>
       <c r="I3" t="n">
-        <v>49.81275588957449</v>
+        <v>45.26446047218649</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,13 +22673,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>65.29235532465395</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>132.0992941419972</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>160.580851732981</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -22711,25 +22713,25 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>102.3017902673406</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>101.2888756437027</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>123.8588069792302</v>
       </c>
       <c r="H4" t="n">
-        <v>134.9352350102176</v>
+        <v>161.4367220597573</v>
       </c>
       <c r="I4" t="n">
-        <v>115.8665979654177</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>53.77530315483219</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22790,19 +22792,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>347.0648912442726</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>367.2921687798708</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>375.7188605532945</v>
+        <v>376.4311200835105</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>295.3426297365386</v>
       </c>
       <c r="I5" t="n">
-        <v>170.8920126085653</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -22844,13 +22846,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>305.1087963381844</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>342.105766276825</v>
       </c>
     </row>
     <row r="6">
@@ -22863,22 +22865,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>133.8368815566912</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>118.0612034935604</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>105.4853354315433</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>97.75964020137005</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>77.36996540850728</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -22920,16 +22922,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>188.6684147701967</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>207.562810781691</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>161.5505233980758</v>
       </c>
     </row>
     <row r="7">
@@ -22948,16 +22950,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>102.3017902673406</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>101.2888756437027</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>123.8588069792302</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>161.4367220597573</v>
       </c>
       <c r="I7" t="n">
         <v>155.4504749272583</v>
@@ -22966,7 +22968,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22981,16 +22983,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>46.5781662898538</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>137.7095144153289</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>199.4461012748567</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -23030,19 +23032,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>383.9598562683348</v>
+        <v>362.7438733624829</v>
       </c>
       <c r="G8" t="n">
-        <v>375.7188605532945</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H8" t="n">
-        <v>299.8909251539266</v>
+        <v>295.3426297365386</v>
       </c>
       <c r="I8" t="n">
-        <v>170.8920126085653</v>
+        <v>171.6042721387814</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23106,19 +23108,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>119.5200543500343</v>
       </c>
       <c r="F9" t="n">
-        <v>110.9503248916526</v>
+        <v>100.9370400141553</v>
       </c>
       <c r="G9" t="n">
-        <v>97.75964020137005</v>
+        <v>93.21134478398204</v>
       </c>
       <c r="H9" t="n">
-        <v>72.65156727465587</v>
+        <v>68.10327185726787</v>
       </c>
       <c r="I9" t="n">
-        <v>49.81275588957449</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23194,13 +23196,13 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>134.9352350102176</v>
+        <v>139.5740415064116</v>
       </c>
       <c r="I10" t="n">
-        <v>115.8665979654177</v>
+        <v>111.3183025480297</v>
       </c>
       <c r="J10" t="n">
-        <v>53.77530315483219</v>
+        <v>49.22700773744418</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23267,16 +23269,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>367.2921687798708</v>
+        <v>362.7438733624829</v>
       </c>
       <c r="G11" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>299.8909251539266</v>
+        <v>295.3426297365386</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>166.3437171911773</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23300,10 +23302,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>110.2852409793091</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
@@ -23315,13 +23317,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>288.8806410385104</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>344.8563210650246</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23343,19 +23345,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>118.7734630237764</v>
       </c>
       <c r="F12" t="n">
-        <v>110.2037335653947</v>
+        <v>100.9370400141553</v>
       </c>
       <c r="G12" t="n">
-        <v>97.75964020137005</v>
+        <v>93.21134478398204</v>
       </c>
       <c r="H12" t="n">
-        <v>72.65156727465587</v>
+        <v>68.10327185726787</v>
       </c>
       <c r="I12" t="n">
-        <v>49.81275588957449</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -23431,16 +23433,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H13" t="n">
-        <v>162.2271725074396</v>
+        <v>139.5740415064116</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>111.3183025480297</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>49.22700773744418</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23455,19 +23457,19 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.5781662898538</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>137.7095144153289</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
-        <v>184.4327210751317</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
-        <v>220.6894778021237</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
         <v>286.3190293564909</v>
@@ -23510,10 +23512,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>314.6000225023228</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>170.8920126085653</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23537,16 +23539,16 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>110.2852409793091</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
@@ -23555,10 +23557,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>310.3693512857885</v>
       </c>
       <c r="X14" t="n">
-        <v>330.1472237166284</v>
+        <v>325.5989282992405</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23619,22 +23621,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>60.57395719080255</v>
+        <v>61.28621672101858</v>
       </c>
       <c r="S15" t="n">
-        <v>132.0992941419972</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>160.580851732981</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>191.0759032529857</v>
+        <v>181.8092097017462</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>188.6684147701967</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>207.562810781691</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23668,16 +23670,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H16" t="n">
-        <v>137.6566757453241</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>115.8665979654177</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>53.77530315483219</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23695,13 +23697,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S16" t="n">
-        <v>224.0165980369723</v>
+        <v>181.8154159451679</v>
       </c>
       <c r="T16" t="n">
         <v>227.9455894282815</v>
@@ -23744,13 +23746,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>371.1705651359065</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>295.3426297365386</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>166.3437171911773</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23777,7 +23779,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>110.9975005095251</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
@@ -23786,16 +23788,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23823,16 +23825,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>74.11041813112978</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>56.02566177341454</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>127.5509987246092</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>156.032556315593</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>101.5944580069804</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23929,25 +23931,25 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>42.02987087246579</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>133.1612189979409</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>183.8134170490529</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>251.3471928761457</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23966,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>362.8771690273874</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24014,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>20.80116313523413</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24045,25 +24047,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>130.7236522184783</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
@@ -24093,10 +24095,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
@@ -24111,7 +24113,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>84.22430814996522</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24181,7 +24183,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24206,28 +24208,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>152.9875061275656</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>356.4090673940316</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24251,7 +24253,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
@@ -24291,19 +24293,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -24336,19 +24338,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>139.3269506677346</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>170.365719729939</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24421,10 +24423,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W25" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24449,7 +24451,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24485,31 +24487,31 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>146.6038018839531</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>49.05096647893927</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24522,22 +24524,22 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>126.6603853579262</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
@@ -24567,22 +24569,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>181.2867422074722</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -24655,13 +24657,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24683,10 +24685,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -24722,25 +24724,25 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>128.6853625704253</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>170.6702810763838</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24756,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -24768,19 +24770,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>7.458523598486863</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>148.0487960863941</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24822,10 +24824,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24898,13 +24900,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24926,10 +24928,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24959,16 +24961,16 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>138.6760617849701</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
@@ -24980,7 +24982,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>145.2236497783945</v>
@@ -24993,13 +24995,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>103.6517501748945</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>26.23646281822218</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -25014,10 +25016,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25044,7 +25046,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
@@ -25126,10 +25128,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U34" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25154,7 +25156,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25172,7 +25174,7 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I35" t="n">
-        <v>207.2105735132092</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -25196,19 +25198,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25217,7 +25219,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>167.4364142495718</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25233,7 +25235,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25242,16 +25244,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>97.32357184445488</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -25278,13 +25280,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>78.37935568991765</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
@@ -25293,10 +25295,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25318,7 +25320,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120118</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25330,7 +25332,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I37" t="n">
-        <v>22.26350734189029</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J37" t="n">
         <v>93.35918011667277</v>
@@ -25400,10 +25402,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25433,7 +25435,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25448,16 +25450,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>125.4575720412377</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="39">
@@ -25467,10 +25469,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>57.12999154646259</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25491,7 +25493,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25518,16 +25520,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>141.8841621389553</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>10.68069428326055</v>
@@ -25536,7 +25538,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25594,7 +25596,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25606,7 +25608,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>146.2678482032095</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25634,13 +25636,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F41" t="n">
-        <v>198.5967987019048</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>178.836744054864</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25691,10 +25693,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y41" t="n">
-        <v>149.7719451957825</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="42">
@@ -25710,25 +25712,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>20.20903838906523</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25752,22 +25754,22 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>13.07047576108283</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -25834,13 +25836,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25865,7 +25867,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25874,10 +25876,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>367.2921687798708</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>375.7188605532945</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25886,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25910,10 +25912,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>115.0036391131605</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>169.4361926244048</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
@@ -25928,10 +25930,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>335.7709603083737</v>
       </c>
     </row>
     <row r="45">
@@ -25947,22 +25949,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,10 +25991,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>60.57395719080255</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>126.3942969708654</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
@@ -26001,16 +26003,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>193.2167101875847</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>212.111106199079</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>171.5638082755731</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26020,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>109.0315960563718</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>105.8371710610907</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>158.0134269971945</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H46" t="n">
         <v>162.2271725074396</v>
@@ -26083,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>246.9391213747504</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>355301.6422752916</v>
+        <v>358695.7022238466</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>355301.6422752917</v>
+        <v>358695.7022238466</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>355301.6422752917</v>
+        <v>358695.7022238466</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>355301.6422752916</v>
+        <v>358695.7022238466</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>355301.6422752916</v>
+        <v>358695.7022238466</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>358695.7022238466</v>
+        <v>498660.652429213</v>
       </c>
     </row>
     <row r="8">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>498660.6524292129</v>
+        <v>498660.652429213</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>498660.6524292129</v>
+        <v>498660.652429213</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>495427.2356367889</v>
+        <v>498660.6524292129</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>355301.6422752916</v>
+        <v>498660.6524292129</v>
       </c>
     </row>
   </sheetData>
@@ -26311,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>76974.81962490579</v>
+        <v>77709.45347827917</v>
       </c>
       <c r="C2" t="n">
-        <v>76974.81962490577</v>
+        <v>77709.45347827919</v>
       </c>
       <c r="D2" t="n">
-        <v>76974.81962490582</v>
+        <v>77709.45347827916</v>
       </c>
       <c r="E2" t="n">
-        <v>76974.81962490577</v>
+        <v>77709.45347827919</v>
       </c>
       <c r="F2" t="n">
-        <v>76974.81962490578</v>
+        <v>77709.4534782792</v>
       </c>
       <c r="G2" t="n">
-        <v>77709.45347827917</v>
+        <v>108004.4371453661</v>
       </c>
       <c r="H2" t="n">
         <v>108004.437145366</v>
       </c>
       <c r="I2" t="n">
-        <v>108004.437145366</v>
+        <v>108004.4371453661</v>
       </c>
       <c r="J2" t="n">
         <v>108004.437145366</v>
@@ -26344,16 +26346,16 @@
         <v>108004.437145366</v>
       </c>
       <c r="M2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="N2" t="n">
         <v>108004.437145366</v>
       </c>
       <c r="O2" t="n">
-        <v>107304.5740098336</v>
+        <v>108004.437145366</v>
       </c>
       <c r="P2" t="n">
-        <v>76974.81962490578</v>
+        <v>108004.437145366</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13265.46759908291</v>
+        <v>14789.70600424422</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1246.619549474791</v>
+        <v>53962.43490047232</v>
       </c>
       <c r="H3" t="n">
-        <v>53120.56697032503</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10356.88390380382</v>
+        <v>11546.91810999089</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47379.87821746379</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17830.0749817395</v>
+        <v>18006.507495794</v>
       </c>
       <c r="C4" t="n">
-        <v>17830.0749817395</v>
+        <v>18006.507495794</v>
       </c>
       <c r="D4" t="n">
-        <v>17830.0749817395</v>
+        <v>18006.507495794</v>
       </c>
       <c r="E4" t="n">
-        <v>17830.0749817395</v>
+        <v>18006.507495794</v>
       </c>
       <c r="F4" t="n">
-        <v>17830.0749817395</v>
+        <v>18006.507495794</v>
       </c>
       <c r="G4" t="n">
-        <v>18006.507495794</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="H4" t="n">
         <v>25282.26821261927</v>
@@ -26454,10 +26456,10 @@
         <v>25282.26821261927</v>
       </c>
       <c r="O4" t="n">
-        <v>25114.18636895109</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="P4" t="n">
-        <v>17830.0749817395</v>
+        <v>25282.26821261927</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="C5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="D5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="E5" t="n">
-        <v>2406.699719279908</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="F5" t="n">
-        <v>2406.699719279908</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="G5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="H5" t="n">
         <v>14653.66876376167</v>
@@ -26506,10 +26508,10 @@
         <v>14653.66876376167</v>
       </c>
       <c r="O5" t="n">
-        <v>14377.13240238448</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="P5" t="n">
-        <v>2406.699719279908</v>
+        <v>14653.66876376167</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9844.977324803476</v>
+        <v>8602.403897583848</v>
       </c>
       <c r="C6" t="n">
-        <v>23110.44492388636</v>
+        <v>23392.10990182809</v>
       </c>
       <c r="D6" t="n">
-        <v>23110.44492388641</v>
+        <v>23392.10990182807</v>
       </c>
       <c r="E6" t="n">
-        <v>56738.04492388635</v>
+        <v>57019.70990182809</v>
       </c>
       <c r="F6" t="n">
-        <v>56738.04492388637</v>
+        <v>57019.7099018281</v>
       </c>
       <c r="G6" t="n">
-        <v>55773.09035235328</v>
+        <v>14106.0652685128</v>
       </c>
       <c r="H6" t="n">
-        <v>14947.93319866004</v>
+        <v>68068.50016898511</v>
       </c>
       <c r="I6" t="n">
-        <v>68068.50016898509</v>
+        <v>68068.50016898512</v>
       </c>
       <c r="J6" t="n">
-        <v>57711.61626518129</v>
+        <v>56521.5820589942</v>
       </c>
       <c r="K6" t="n">
-        <v>68068.50016898508</v>
+        <v>68068.50016898511</v>
       </c>
       <c r="L6" t="n">
-        <v>68068.50016898508</v>
+        <v>68068.50016898511</v>
       </c>
       <c r="M6" t="n">
-        <v>68068.50016898513</v>
+        <v>68068.50016898511</v>
       </c>
       <c r="N6" t="n">
-        <v>68068.50016898509</v>
+        <v>68068.50016898511</v>
       </c>
       <c r="O6" t="n">
-        <v>67813.25523849802</v>
+        <v>20688.6219515213</v>
       </c>
       <c r="P6" t="n">
-        <v>56738.04492388637</v>
+        <v>68068.50016898511</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H4" t="n">
         <v>241.0142888776591</v>
@@ -26826,10 +26828,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P4" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,31 +27026,31 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.548295417388005</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>44.13217237922859</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>196.8821164984305</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.548295417388005</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="P4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L2" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M2" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M3" t="n">
-        <v>37.98452839772582</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34866,7 +34868,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O4" t="n">
         <v>24.58512791403967</v>
@@ -34936,19 +34938,19 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L5" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M5" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="N5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35015,13 +35017,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M6" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35030,10 +35032,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35103,7 +35105,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N7" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O7" t="n">
         <v>24.58512791403967</v>
@@ -35173,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M8" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35258,19 +35260,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>37.98452839772582</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P9" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35340,7 +35342,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N10" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O10" t="n">
         <v>24.58512791403967</v>
@@ -35413,19 +35415,19 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M11" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N11" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P12" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q12" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35577,7 +35579,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N13" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O13" t="n">
         <v>24.58512791403967</v>
@@ -35647,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L14" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35729,22 +35731,22 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M15" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P15" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35814,7 +35816,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N16" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O16" t="n">
         <v>24.58512791403967</v>
@@ -35884,22 +35886,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L17" t="n">
-        <v>42.34905430330018</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P17" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>44.13217237922859</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>42.34905430330018</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>44.13217237922859</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>44.13217237922859</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36127,7 +36129,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M20" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N20" t="n">
         <v>207.9338608153932</v>
@@ -36437,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>99.81127712997396</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36677,13 +36679,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36838,7 +36840,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M29" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N29" t="n">
         <v>207.9338608153932</v>
@@ -36914,22 +36916,22 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
+        <v>217.7067518141195</v>
+      </c>
+      <c r="N30" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N30" t="n">
-        <v>240.0046611659691</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37151,19 +37153,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
         <v>70.09551364982758</v>
@@ -37385,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37400,10 +37402,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>104.6525397736754</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37628,16 +37630,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>169.9067907798017</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37795,7 +37797,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>72.55630025847472</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37859,19 +37861,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="O42" t="n">
-        <v>212.9739584278434</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
@@ -38017,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>39.58387696184059</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
-        <v>39.58387696184059</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
-        <v>37.98452839772582</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>39.58387696184059</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>39.58387696184059</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L45" t="n">
-        <v>39.58387696184059</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>37.98452839772582</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>39.58387696184059</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38184,7 +38186,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N46" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O46" t="n">
         <v>24.58512791403967</v>
